--- a/data/pca/factorExposure/factorExposure_2009-10-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01037863432590549</v>
+        <v>0.01694331943561551</v>
       </c>
       <c r="C2">
-        <v>-0.001723475557134811</v>
+        <v>-0.0009863689568414113</v>
       </c>
       <c r="D2">
-        <v>0.007807762649165513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008784542311315107</v>
+      </c>
+      <c r="E2">
+        <v>-0.001758493068154511</v>
+      </c>
+      <c r="F2">
+        <v>-0.01218786935196164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1084013592629139</v>
+        <v>0.09378868921694331</v>
       </c>
       <c r="C4">
-        <v>-0.01100037013035074</v>
+        <v>-0.01454541050478019</v>
       </c>
       <c r="D4">
-        <v>0.0605967486935983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08434812473140951</v>
+      </c>
+      <c r="E4">
+        <v>-0.02924436046710472</v>
+      </c>
+      <c r="F4">
+        <v>0.03193928992446068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.140255575520368</v>
+        <v>0.1586441043898094</v>
       </c>
       <c r="C6">
-        <v>-0.01570692167646298</v>
+        <v>-0.02609100634723617</v>
       </c>
       <c r="D6">
-        <v>-0.02284441944688998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02267702790062359</v>
+      </c>
+      <c r="E6">
+        <v>-0.01018440074863622</v>
+      </c>
+      <c r="F6">
+        <v>0.04514422560216128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07752788514867226</v>
+        <v>0.06345834658380899</v>
       </c>
       <c r="C7">
-        <v>0.004332223252726802</v>
+        <v>0.001806099241019461</v>
       </c>
       <c r="D7">
-        <v>0.03274076871080205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05303210890233626</v>
+      </c>
+      <c r="E7">
+        <v>-0.01184308985913493</v>
+      </c>
+      <c r="F7">
+        <v>0.04767377085500564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06495252874343685</v>
+        <v>0.05715965819328244</v>
       </c>
       <c r="C8">
-        <v>0.01563080867752616</v>
+        <v>0.0135524075333536</v>
       </c>
       <c r="D8">
-        <v>0.008723219832828984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03310631046277746</v>
+      </c>
+      <c r="E8">
+        <v>-0.01801457770974437</v>
+      </c>
+      <c r="F8">
+        <v>-0.02725040974165152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08306122846911512</v>
+        <v>0.07092635809397715</v>
       </c>
       <c r="C9">
-        <v>-0.01004326477202045</v>
+        <v>-0.0101641347151576</v>
       </c>
       <c r="D9">
-        <v>0.06475311440493997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08696083944229925</v>
+      </c>
+      <c r="E9">
+        <v>-0.02368255811799414</v>
+      </c>
+      <c r="F9">
+        <v>0.048154089188708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07472559325442883</v>
+        <v>0.09271927240837902</v>
       </c>
       <c r="C10">
-        <v>-0.005382778446468565</v>
+        <v>-0.02107393957274961</v>
       </c>
       <c r="D10">
-        <v>-0.1546522726662864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1664434381489549</v>
+      </c>
+      <c r="E10">
+        <v>0.03318044789385556</v>
+      </c>
+      <c r="F10">
+        <v>-0.05503176594984018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0939099679745572</v>
+        <v>0.0879541492022005</v>
       </c>
       <c r="C11">
-        <v>-0.009366932826753646</v>
+        <v>-0.01025694127204532</v>
       </c>
       <c r="D11">
-        <v>0.0920949140603701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170602482399441</v>
+      </c>
+      <c r="E11">
+        <v>-0.04643534113801721</v>
+      </c>
+      <c r="F11">
+        <v>0.02310168790214098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1017444531426305</v>
+        <v>0.09199227208723454</v>
       </c>
       <c r="C12">
-        <v>-0.007441075830441135</v>
+        <v>-0.007660051160089531</v>
       </c>
       <c r="D12">
-        <v>0.09190724017598514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1319362422803504</v>
+      </c>
+      <c r="E12">
+        <v>-0.04681024044212289</v>
+      </c>
+      <c r="F12">
+        <v>0.0288055362528431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0433278696736541</v>
+        <v>0.04192068107052113</v>
       </c>
       <c r="C13">
-        <v>-0.002543739022764491</v>
+        <v>-0.002515680093491793</v>
       </c>
       <c r="D13">
-        <v>0.03832561913293692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05377871572524186</v>
+      </c>
+      <c r="E13">
+        <v>0.004506756716790932</v>
+      </c>
+      <c r="F13">
+        <v>0.001013581104587502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02507430603799513</v>
+        <v>0.02413977917751538</v>
       </c>
       <c r="C14">
-        <v>-0.01347988510145025</v>
+        <v>-0.01384252592190915</v>
       </c>
       <c r="D14">
-        <v>0.02385219785341951</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03273913485836148</v>
+      </c>
+      <c r="E14">
+        <v>-0.01894229068649494</v>
+      </c>
+      <c r="F14">
+        <v>0.01301956780042327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03845778905114532</v>
+        <v>0.0325971669893238</v>
       </c>
       <c r="C15">
-        <v>-0.004424785035902592</v>
+        <v>-0.00454404359938808</v>
       </c>
       <c r="D15">
-        <v>0.02116562018297941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04479645197327495</v>
+      </c>
+      <c r="E15">
+        <v>-0.005996313517303912</v>
+      </c>
+      <c r="F15">
+        <v>0.02420406825737588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08142937409134279</v>
+        <v>0.07419785481624136</v>
       </c>
       <c r="C16">
-        <v>-0.001891304844959262</v>
+        <v>-0.0008777585077877899</v>
       </c>
       <c r="D16">
-        <v>0.08752208213666345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1275495779431605</v>
+      </c>
+      <c r="E16">
+        <v>-0.06120067087845732</v>
+      </c>
+      <c r="F16">
+        <v>0.02688058175202771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006754732471646673</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.000201163048259428</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.0008754726482719474</v>
+      </c>
+      <c r="E17">
+        <v>-0.0005785834043753328</v>
+      </c>
+      <c r="F17">
+        <v>-0.0007581836431065287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.004692578861727038</v>
+        <v>0.03591813116102498</v>
       </c>
       <c r="C18">
-        <v>-7.993808680856008e-05</v>
+        <v>0.00309671219620889</v>
       </c>
       <c r="D18">
-        <v>0.001081223258456372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01562475729914842</v>
+      </c>
+      <c r="E18">
+        <v>0.009664190935875828</v>
+      </c>
+      <c r="F18">
+        <v>-0.008474675475802485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06183196552112252</v>
+        <v>0.06142434903120875</v>
       </c>
       <c r="C20">
-        <v>-0.002078062222545199</v>
+        <v>0.000156192696393255</v>
       </c>
       <c r="D20">
-        <v>0.03551644060870157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07761367401991269</v>
+      </c>
+      <c r="E20">
+        <v>-0.05621962148756453</v>
+      </c>
+      <c r="F20">
+        <v>0.02502874223292572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04209591690013127</v>
+        <v>0.0406818778403528</v>
       </c>
       <c r="C21">
-        <v>-0.007463253232017113</v>
+        <v>-0.006389547581448666</v>
       </c>
       <c r="D21">
-        <v>0.01137712442914307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0375820587512682</v>
+      </c>
+      <c r="E21">
+        <v>0.001993779108010514</v>
+      </c>
+      <c r="F21">
+        <v>-0.02514673782255896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02349216724609919</v>
+        <v>0.04310745660398405</v>
       </c>
       <c r="C22">
-        <v>-7.962689809944025e-05</v>
+        <v>-0.0004502459826579952</v>
       </c>
       <c r="D22">
-        <v>-0.02324625238397887</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006526888406846724</v>
+      </c>
+      <c r="E22">
+        <v>-0.03456025356903835</v>
+      </c>
+      <c r="F22">
+        <v>-0.03749220567437573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02344067469867361</v>
+        <v>0.04308334802009919</v>
       </c>
       <c r="C23">
-        <v>-7.593904357359858e-05</v>
+        <v>-0.0004418829543662688</v>
       </c>
       <c r="D23">
-        <v>-0.02323918230011509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006542569524933999</v>
+      </c>
+      <c r="E23">
+        <v>-0.03474316777839278</v>
+      </c>
+      <c r="F23">
+        <v>-0.0374556288058001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08874064599535837</v>
+        <v>0.07985032091477623</v>
       </c>
       <c r="C24">
-        <v>-0.00113603962740791</v>
+        <v>-0.001487576764968105</v>
       </c>
       <c r="D24">
-        <v>0.09992900694523794</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1216589747123723</v>
+      </c>
+      <c r="E24">
+        <v>-0.04928638530315249</v>
+      </c>
+      <c r="F24">
+        <v>0.02764963256414218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09475251314671275</v>
+        <v>0.08523715763217737</v>
       </c>
       <c r="C25">
-        <v>-0.003161642099738864</v>
+        <v>-0.004294138907391404</v>
       </c>
       <c r="D25">
-        <v>0.08995272763824308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094126888653409</v>
+      </c>
+      <c r="E25">
+        <v>-0.03265689486224676</v>
+      </c>
+      <c r="F25">
+        <v>0.02755930869146426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0600842971804943</v>
+        <v>0.05845967825812371</v>
       </c>
       <c r="C26">
-        <v>-0.01409157752650508</v>
+        <v>-0.0141371839648418</v>
       </c>
       <c r="D26">
-        <v>0.008123419009166926</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04078257823352128</v>
+      </c>
+      <c r="E26">
+        <v>-0.0280457944850653</v>
+      </c>
+      <c r="F26">
+        <v>-0.005916439452626274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1322636707412095</v>
+        <v>0.1424680092743184</v>
       </c>
       <c r="C28">
-        <v>0.002693593230947646</v>
+        <v>-0.02208702211017695</v>
       </c>
       <c r="D28">
-        <v>-0.2685966338238934</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2616038621041594</v>
+      </c>
+      <c r="E28">
+        <v>0.06713146964891721</v>
+      </c>
+      <c r="F28">
+        <v>0.009376418521078863</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02573925538948653</v>
+        <v>0.02840909419643918</v>
       </c>
       <c r="C29">
-        <v>-0.008179260597202625</v>
+        <v>-0.008634520086329258</v>
       </c>
       <c r="D29">
-        <v>0.01864873577401993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0308663679979069</v>
+      </c>
+      <c r="E29">
+        <v>-0.01370144996362423</v>
+      </c>
+      <c r="F29">
+        <v>-0.01333490025830092</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09227078546854038</v>
+        <v>0.05945694776080555</v>
       </c>
       <c r="C30">
-        <v>0.0009583541935332911</v>
+        <v>-0.002554091622267863</v>
       </c>
       <c r="D30">
-        <v>0.07141768651766303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09018512378945455</v>
+      </c>
+      <c r="E30">
+        <v>-0.01651771056198141</v>
+      </c>
+      <c r="F30">
+        <v>0.07892085374077967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03980147741811375</v>
+        <v>0.05075091247804158</v>
       </c>
       <c r="C31">
-        <v>-0.01452318546348074</v>
+        <v>-0.01530172004734006</v>
       </c>
       <c r="D31">
-        <v>0.0173103580888232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02487278950435809</v>
+      </c>
+      <c r="E31">
+        <v>-0.02839125215117334</v>
+      </c>
+      <c r="F31">
+        <v>-0.0009661419407601103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05225806907316046</v>
+        <v>0.05130142678323962</v>
       </c>
       <c r="C32">
-        <v>0.002387597059636273</v>
+        <v>0.001868383922534258</v>
       </c>
       <c r="D32">
-        <v>0.01581306028024148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03537994865038654</v>
+      </c>
+      <c r="E32">
+        <v>-0.03341789555025172</v>
+      </c>
+      <c r="F32">
+        <v>0.00321084131740944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09654772512906432</v>
+        <v>0.08943478260697278</v>
       </c>
       <c r="C33">
-        <v>-0.0053690924842533</v>
+        <v>-0.006774596010869423</v>
       </c>
       <c r="D33">
-        <v>0.06780977904580981</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1008369000201116</v>
+      </c>
+      <c r="E33">
+        <v>-0.04393706757498657</v>
+      </c>
+      <c r="F33">
+        <v>0.03744959214905853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.08020430473609484</v>
+        <v>0.06770748269582358</v>
       </c>
       <c r="C34">
-        <v>-0.008733770525246758</v>
+        <v>-0.009996640415516973</v>
       </c>
       <c r="D34">
-        <v>0.08890087552348158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1092574033635762</v>
+      </c>
+      <c r="E34">
+        <v>-0.03467802725924232</v>
+      </c>
+      <c r="F34">
+        <v>0.03378064200493475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02578307416722854</v>
+        <v>0.02479794343388243</v>
       </c>
       <c r="C35">
-        <v>-0.0001611767855097294</v>
+        <v>-0.002480582354429578</v>
       </c>
       <c r="D35">
-        <v>0.002141611138970308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01105795787604972</v>
+      </c>
+      <c r="E35">
+        <v>-0.01175589206300311</v>
+      </c>
+      <c r="F35">
+        <v>0.000536468098699293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01666084273432448</v>
+        <v>0.0275264945132213</v>
       </c>
       <c r="C36">
-        <v>-0.008750932218642574</v>
+        <v>-0.00677314093163355</v>
       </c>
       <c r="D36">
-        <v>0.02735216277327818</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03966264126469311</v>
+      </c>
+      <c r="E36">
+        <v>-0.01637106252363682</v>
+      </c>
+      <c r="F36">
+        <v>0.01535494366620436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0009462088246342165</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005663096195844147</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002203940291621796</v>
+      </c>
+      <c r="E37">
+        <v>0.001005780281393655</v>
+      </c>
+      <c r="F37">
+        <v>0.0009923205037627627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0001007245142600534</v>
+        <v>5.410708732434453e-05</v>
       </c>
       <c r="C38">
-        <v>-6.697601162822473e-07</v>
+        <v>6.504858881980137e-05</v>
       </c>
       <c r="D38">
-        <v>0.001343483726526501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007432451764824913</v>
+      </c>
+      <c r="E38">
+        <v>0.0001912158659809622</v>
+      </c>
+      <c r="F38">
+        <v>0.0002924079514149045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1266461894950504</v>
+        <v>0.1042572867764402</v>
       </c>
       <c r="C39">
-        <v>-0.01352703138606927</v>
+        <v>-0.01536603428374191</v>
       </c>
       <c r="D39">
-        <v>0.1373450947607339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1551475118381956</v>
+      </c>
+      <c r="E39">
+        <v>-0.06020550795105692</v>
+      </c>
+      <c r="F39">
+        <v>0.02989168401963827</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02911805550163725</v>
+        <v>0.0412897427446518</v>
       </c>
       <c r="C40">
-        <v>-0.007212247669220889</v>
+        <v>-0.006918425601968022</v>
       </c>
       <c r="D40">
-        <v>-0.01531684353342328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03073510494896656</v>
+      </c>
+      <c r="E40">
+        <v>-0.002343695541238217</v>
+      </c>
+      <c r="F40">
+        <v>-0.0161801392399227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02131930380658139</v>
+        <v>0.02828918774737799</v>
       </c>
       <c r="C41">
-        <v>-0.006242002349034144</v>
+        <v>-0.006912020886565843</v>
       </c>
       <c r="D41">
-        <v>0.0002520663134891985</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0102986725453192</v>
+      </c>
+      <c r="E41">
+        <v>-0.01198124416823704</v>
+      </c>
+      <c r="F41">
+        <v>-0.005851987722626691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.02641780448061113</v>
+        <v>0.04087320275621269</v>
       </c>
       <c r="C43">
-        <v>-0.00811479908058514</v>
+        <v>-0.007035894786279762</v>
       </c>
       <c r="D43">
-        <v>0.007158967023422028</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01905156655861449</v>
+      </c>
+      <c r="E43">
+        <v>-0.02551690295044038</v>
+      </c>
+      <c r="F43">
+        <v>-0.01263323042810452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1009583269448015</v>
+        <v>0.07916908081164874</v>
       </c>
       <c r="C44">
-        <v>-0.01713977044441447</v>
+        <v>-0.01900337021807129</v>
       </c>
       <c r="D44">
-        <v>0.06847242682489781</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09814898604328644</v>
+      </c>
+      <c r="E44">
+        <v>-0.06231919577239415</v>
+      </c>
+      <c r="F44">
+        <v>0.1550724297213203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01198293622753206</v>
+        <v>0.0234433225018137</v>
       </c>
       <c r="C46">
-        <v>-0.004067821995606942</v>
+        <v>-0.003335637551246201</v>
       </c>
       <c r="D46">
-        <v>-0.002103597953271605</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01291387398331455</v>
+      </c>
+      <c r="E46">
+        <v>-0.02629818910159957</v>
+      </c>
+      <c r="F46">
+        <v>-0.006298922795784033</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03694043795629174</v>
+        <v>0.05218591718273003</v>
       </c>
       <c r="C47">
-        <v>-0.002720659352575667</v>
+        <v>-0.003189431213268598</v>
       </c>
       <c r="D47">
-        <v>-0.01258177204744025</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01407915447498374</v>
+      </c>
+      <c r="E47">
+        <v>-0.02319196400946175</v>
+      </c>
+      <c r="F47">
+        <v>-0.03182834893277332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04904416525532721</v>
+        <v>0.05021590151286314</v>
       </c>
       <c r="C48">
-        <v>-0.001767469108797793</v>
+        <v>-0.002081006591176516</v>
       </c>
       <c r="D48">
-        <v>0.03262412384943397</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05006926817244719</v>
+      </c>
+      <c r="E48">
+        <v>0.00490689304196401</v>
+      </c>
+      <c r="F48">
+        <v>0.009900364927602347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2070851599564638</v>
+        <v>0.2004741702157655</v>
       </c>
       <c r="C49">
-        <v>-0.002007102522865087</v>
+        <v>-0.01868314451153632</v>
       </c>
       <c r="D49">
-        <v>0.005139465186164273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005494800585568808</v>
+      </c>
+      <c r="E49">
+        <v>-0.03192613527029911</v>
+      </c>
+      <c r="F49">
+        <v>0.03675913636024794</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04198148410702527</v>
+        <v>0.05113163932246098</v>
       </c>
       <c r="C50">
-        <v>-0.01005960498756498</v>
+        <v>-0.01100497763272332</v>
       </c>
       <c r="D50">
-        <v>0.01253078783781391</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02427831439877247</v>
+      </c>
+      <c r="E50">
+        <v>-0.02962813723279726</v>
+      </c>
+      <c r="F50">
+        <v>0.01020812351975545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-8.986847946755305e-06</v>
+        <v>-2.811621610036706e-05</v>
       </c>
       <c r="C51">
-        <v>1.524941680980505e-05</v>
+        <v>1.06187462743186e-05</v>
       </c>
       <c r="D51">
-        <v>3.470213997250159e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-6.687188021053032e-05</v>
+      </c>
+      <c r="E51">
+        <v>-3.980108012486432e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.0001835985358716925</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1560381713979827</v>
+        <v>0.1472801628318159</v>
       </c>
       <c r="C52">
-        <v>-0.004825665242622442</v>
+        <v>-0.01673307561682631</v>
       </c>
       <c r="D52">
-        <v>0.0520718832803402</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04282209092920655</v>
+      </c>
+      <c r="E52">
+        <v>-0.0193880734019322</v>
+      </c>
+      <c r="F52">
+        <v>0.04332070888581736</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1703335650669567</v>
+        <v>0.171359209524754</v>
       </c>
       <c r="C53">
-        <v>-0.003480641574096477</v>
+        <v>-0.01941364928485574</v>
       </c>
       <c r="D53">
-        <v>0.01897396053476574</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005580338842401145</v>
+      </c>
+      <c r="E53">
+        <v>-0.02860279285605434</v>
+      </c>
+      <c r="F53">
+        <v>0.0735233578447957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02098666006131069</v>
+        <v>0.02119478031465507</v>
       </c>
       <c r="C54">
-        <v>-0.01072239087376209</v>
+        <v>-0.01141809736687738</v>
       </c>
       <c r="D54">
-        <v>0.02295770387138989</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03456799987156917</v>
+      </c>
+      <c r="E54">
+        <v>-0.02179604107011434</v>
+      </c>
+      <c r="F54">
+        <v>-0.004940785673261441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1069642986538711</v>
+        <v>0.1141206612922459</v>
       </c>
       <c r="C55">
-        <v>-0.007599876213936696</v>
+        <v>-0.017120626510711</v>
       </c>
       <c r="D55">
-        <v>0.006717508565267457</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008322593798778288</v>
+      </c>
+      <c r="E55">
+        <v>-0.02369175297866439</v>
+      </c>
+      <c r="F55">
+        <v>0.04778174276649083</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1752728547676399</v>
+        <v>0.1768450581522759</v>
       </c>
       <c r="C56">
-        <v>-0.001477416450547239</v>
+        <v>-0.01725919474611465</v>
       </c>
       <c r="D56">
-        <v>-0.004269708776815857</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001218535698850405</v>
+      </c>
+      <c r="E56">
+        <v>-0.03315933365342705</v>
+      </c>
+      <c r="F56">
+        <v>0.0521020403113712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03338346932036947</v>
+        <v>0.04459242727379265</v>
       </c>
       <c r="C58">
-        <v>-0.0052697397356674</v>
+        <v>0.0008247389361676541</v>
       </c>
       <c r="D58">
-        <v>0.05137848695116715</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07149842921753873</v>
+      </c>
+      <c r="E58">
+        <v>-0.03080816218652012</v>
+      </c>
+      <c r="F58">
+        <v>-0.03794205117789821</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1548494050670509</v>
+        <v>0.1677335427218884</v>
       </c>
       <c r="C59">
-        <v>0.003402253535333213</v>
+        <v>-0.02197800627826402</v>
       </c>
       <c r="D59">
-        <v>-0.2296931392899143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2166522675392579</v>
+      </c>
+      <c r="E59">
+        <v>0.04578046390204197</v>
+      </c>
+      <c r="F59">
+        <v>-0.03520756502305429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2527612888471471</v>
+        <v>0.2318859411488141</v>
       </c>
       <c r="C60">
-        <v>0.02350777658932504</v>
+        <v>0.00256518098094088</v>
       </c>
       <c r="D60">
-        <v>0.05493627745692686</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04202812291713931</v>
+      </c>
+      <c r="E60">
+        <v>-0.0100046641145346</v>
+      </c>
+      <c r="F60">
+        <v>-0.006383215381023087</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1051009848388777</v>
+        <v>0.08034844378779421</v>
       </c>
       <c r="C61">
-        <v>-0.007906285767280523</v>
+        <v>-0.01119535883267198</v>
       </c>
       <c r="D61">
-        <v>0.09171356909183091</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1178425821530133</v>
+      </c>
+      <c r="E61">
+        <v>-0.03986688462955568</v>
+      </c>
+      <c r="F61">
+        <v>0.0128756243873373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1759974098111427</v>
+        <v>0.1698262863123902</v>
       </c>
       <c r="C62">
-        <v>-0.004950411062415281</v>
+        <v>-0.02046565657565416</v>
       </c>
       <c r="D62">
-        <v>-0.004409719104898385</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00590710978469115</v>
+      </c>
+      <c r="E62">
+        <v>-0.03356366822843054</v>
+      </c>
+      <c r="F62">
+        <v>0.03570176561357305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.05060189503928333</v>
+        <v>0.0456811752908693</v>
       </c>
       <c r="C63">
-        <v>-0.001981486563554129</v>
+        <v>-0.001653909211370474</v>
       </c>
       <c r="D63">
-        <v>0.0337228681196045</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05840968323736201</v>
+      </c>
+      <c r="E63">
+        <v>-0.02275868232660264</v>
+      </c>
+      <c r="F63">
+        <v>0.003222053986032529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1015760860867555</v>
+        <v>0.109977564584307</v>
       </c>
       <c r="C64">
-        <v>-0.006828303494802612</v>
+        <v>-0.01111870443152862</v>
       </c>
       <c r="D64">
-        <v>0.01308741986313172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04420338578421991</v>
+      </c>
+      <c r="E64">
+        <v>-0.02236372828271298</v>
+      </c>
+      <c r="F64">
+        <v>0.02556873359052275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1289519637194863</v>
+        <v>0.1496573399674445</v>
       </c>
       <c r="C65">
-        <v>-0.02290686014210769</v>
+        <v>-0.03353226904911107</v>
       </c>
       <c r="D65">
-        <v>-0.0175456792193504</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04294008302345261</v>
+      </c>
+      <c r="E65">
+        <v>-0.005583814754260856</v>
+      </c>
+      <c r="F65">
+        <v>0.04117107790173564</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1546364819144518</v>
+        <v>0.1237028654805585</v>
       </c>
       <c r="C66">
-        <v>-0.008413714081536707</v>
+        <v>-0.01328861009478393</v>
       </c>
       <c r="D66">
-        <v>0.1300518120869699</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1429002085296226</v>
+      </c>
+      <c r="E66">
+        <v>-0.06589643432017084</v>
+      </c>
+      <c r="F66">
+        <v>0.03369845553459695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06032179438746749</v>
+        <v>0.05791464414573245</v>
       </c>
       <c r="C67">
-        <v>-0.0001906374435185019</v>
+        <v>-0.002777780003832733</v>
       </c>
       <c r="D67">
-        <v>0.03873084649263269</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05650420582616454</v>
+      </c>
+      <c r="E67">
+        <v>-0.01677654916428505</v>
+      </c>
+      <c r="F67">
+        <v>-0.03156888509240528</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1044077386980844</v>
+        <v>0.1164222003905843</v>
       </c>
       <c r="C68">
-        <v>-0.009510966195276768</v>
+        <v>-0.03256857818717532</v>
       </c>
       <c r="D68">
-        <v>-0.2426932682576752</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2605950218999987</v>
+      </c>
+      <c r="E68">
+        <v>0.0864873676711306</v>
+      </c>
+      <c r="F68">
+        <v>0.005159618580186664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03474834337569976</v>
+        <v>0.03939333455673315</v>
       </c>
       <c r="C69">
-        <v>0.001072267815742148</v>
+        <v>-0.001093875406293479</v>
       </c>
       <c r="D69">
-        <v>0.0009441897904705174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008176084330718205</v>
+      </c>
+      <c r="E69">
+        <v>-0.02353496269750604</v>
+      </c>
+      <c r="F69">
+        <v>0.0008462528861807431</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05051214870645651</v>
+        <v>0.06681891654031087</v>
       </c>
       <c r="C70">
-        <v>0.02729204786889718</v>
+        <v>0.02755718205575277</v>
       </c>
       <c r="D70">
-        <v>-0.05125861164169467</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02400512069181006</v>
+      </c>
+      <c r="E70">
+        <v>0.03475759833133583</v>
+      </c>
+      <c r="F70">
+        <v>-0.1829335580693952</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.120019485713495</v>
+        <v>0.1363081061066389</v>
       </c>
       <c r="C71">
-        <v>-0.01252409974792596</v>
+        <v>-0.03691388587740869</v>
       </c>
       <c r="D71">
-        <v>-0.2619678535239151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723558763229999</v>
+      </c>
+      <c r="E71">
+        <v>0.09702837397082634</v>
+      </c>
+      <c r="F71">
+        <v>0.01047080890011121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1347292419934207</v>
+        <v>0.1425766282328307</v>
       </c>
       <c r="C72">
-        <v>-0.01621618695868062</v>
+        <v>-0.02680541955718164</v>
       </c>
       <c r="D72">
-        <v>-0.009708546697616408</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002568768137138746</v>
+      </c>
+      <c r="E72">
+        <v>-0.03665852054138147</v>
+      </c>
+      <c r="F72">
+        <v>0.03157372438894426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2021078498649194</v>
+        <v>0.2032285244726936</v>
       </c>
       <c r="C73">
-        <v>0.003556742837790536</v>
+        <v>-0.01243957939043488</v>
       </c>
       <c r="D73">
-        <v>0.0005145678734539555</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01804008575846855</v>
+      </c>
+      <c r="E73">
+        <v>-0.06344347461093541</v>
+      </c>
+      <c r="F73">
+        <v>0.0369761847972323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09831214510240281</v>
+        <v>0.09500297351585853</v>
       </c>
       <c r="C74">
-        <v>-0.003337845691546317</v>
+        <v>-0.01337661370323517</v>
       </c>
       <c r="D74">
-        <v>0.0220280065435054</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0173370747708613</v>
+      </c>
+      <c r="E74">
+        <v>-0.04409264135439868</v>
+      </c>
+      <c r="F74">
+        <v>0.05760028244298482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1318588683511704</v>
+        <v>0.1273050198604382</v>
       </c>
       <c r="C75">
-        <v>-0.01768530542962767</v>
+        <v>-0.02792078118520231</v>
       </c>
       <c r="D75">
-        <v>0.01893758985055252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03046989692063337</v>
+      </c>
+      <c r="E75">
+        <v>-0.05809995088217411</v>
+      </c>
+      <c r="F75">
+        <v>0.02191499871941439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07892398273541941</v>
+        <v>0.08734999476709274</v>
       </c>
       <c r="C77">
-        <v>-0.009187425656555559</v>
+        <v>-0.008124587700184656</v>
       </c>
       <c r="D77">
-        <v>0.09464434537858563</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1114528140303761</v>
+      </c>
+      <c r="E77">
+        <v>-0.03831479767337027</v>
+      </c>
+      <c r="F77">
+        <v>0.03468349553956559</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.104223223157615</v>
+        <v>0.1000065490076325</v>
       </c>
       <c r="C78">
-        <v>-0.03762810730167195</v>
+        <v>-0.03915371210412606</v>
       </c>
       <c r="D78">
-        <v>0.09106976870811519</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1146977967822663</v>
+      </c>
+      <c r="E78">
+        <v>-0.07481636663389866</v>
+      </c>
+      <c r="F78">
+        <v>0.04744810559054306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1605241272936604</v>
+        <v>0.1640285573804133</v>
       </c>
       <c r="C79">
-        <v>-0.009908221734234635</v>
+        <v>-0.02275061901975815</v>
       </c>
       <c r="D79">
-        <v>-0.002219458165326662</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01406905764628612</v>
+      </c>
+      <c r="E79">
+        <v>-0.04589589426493208</v>
+      </c>
+      <c r="F79">
+        <v>0.01187215561108539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.09150476319635267</v>
+        <v>0.08233711396593089</v>
       </c>
       <c r="C80">
-        <v>0.005222161090048482</v>
+        <v>0.001040663754645732</v>
       </c>
       <c r="D80">
-        <v>0.04679761661239043</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05634949008634444</v>
+      </c>
+      <c r="E80">
+        <v>-0.03615879260485404</v>
+      </c>
+      <c r="F80">
+        <v>-0.02251258459082445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1183945474060647</v>
+        <v>0.1196573231231917</v>
       </c>
       <c r="C81">
-        <v>-0.02154099790723443</v>
+        <v>-0.03178655394913351</v>
       </c>
       <c r="D81">
-        <v>0.03378111292037702</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01456240830512434</v>
+      </c>
+      <c r="E81">
+        <v>-0.05663592089067782</v>
+      </c>
+      <c r="F81">
+        <v>0.01770827813167127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1677023699319749</v>
+        <v>0.165984797035071</v>
       </c>
       <c r="C82">
-        <v>-0.009459268672883695</v>
+        <v>-0.02488909145883883</v>
       </c>
       <c r="D82">
-        <v>0.02101638894493511</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003379444335604274</v>
+      </c>
+      <c r="E82">
+        <v>-0.02616449922183184</v>
+      </c>
+      <c r="F82">
+        <v>0.08113683809533151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06920237060413</v>
+        <v>0.05880939683137893</v>
       </c>
       <c r="C83">
-        <v>-0.001436644677993493</v>
+        <v>-0.002615123821350976</v>
       </c>
       <c r="D83">
-        <v>0.03079514502015984</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05169979881333142</v>
+      </c>
+      <c r="E83">
+        <v>-0.003394271685536447</v>
+      </c>
+      <c r="F83">
+        <v>-0.03065156090626263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07207560302946776</v>
+        <v>0.0591496090844878</v>
       </c>
       <c r="C84">
-        <v>-0.008988990750143892</v>
+        <v>-0.01098765571408393</v>
       </c>
       <c r="D84">
-        <v>0.04915426514483505</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06417484656583244</v>
+      </c>
+      <c r="E84">
+        <v>-0.007540869101766846</v>
+      </c>
+      <c r="F84">
+        <v>0.005722636332363926</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1316722700859498</v>
+        <v>0.1353919573747875</v>
       </c>
       <c r="C85">
-        <v>-0.01802616574748654</v>
+        <v>-0.0278637903117022</v>
       </c>
       <c r="D85">
-        <v>0.01188029932132597</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009663879134509477</v>
+      </c>
+      <c r="E85">
+        <v>-0.03610024889676005</v>
+      </c>
+      <c r="F85">
+        <v>0.04796804564178166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.07180367929872696</v>
+        <v>0.09422893813867571</v>
       </c>
       <c r="C86">
-        <v>0.00309876660302947</v>
+        <v>0.005686375081248657</v>
       </c>
       <c r="D86">
-        <v>-0.06244971894690812</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04004173096059569</v>
+      </c>
+      <c r="E86">
+        <v>-0.2252656746807687</v>
+      </c>
+      <c r="F86">
+        <v>-0.9052252369665691</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1224510284552779</v>
+        <v>0.09450311002080844</v>
       </c>
       <c r="C87">
-        <v>-0.01664083802014905</v>
+        <v>-0.01934961179580487</v>
       </c>
       <c r="D87">
-        <v>0.06617414352825055</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09392804276147798</v>
+      </c>
+      <c r="E87">
+        <v>0.05289503727736918</v>
+      </c>
+      <c r="F87">
+        <v>0.04714315244935665</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05541248885685086</v>
+        <v>0.06077895999204489</v>
       </c>
       <c r="C88">
-        <v>-0.002067131367226555</v>
+        <v>-0.00215037690891396</v>
       </c>
       <c r="D88">
-        <v>0.02763931157192903</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04964033546686464</v>
+      </c>
+      <c r="E88">
+        <v>-0.02389953060812074</v>
+      </c>
+      <c r="F88">
+        <v>0.01400138048721889</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1239482307889391</v>
+        <v>0.130667175284811</v>
       </c>
       <c r="C89">
-        <v>0.01008199597413497</v>
+        <v>-0.01345856004970781</v>
       </c>
       <c r="D89">
-        <v>-0.2725870704124568</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2470992465935277</v>
+      </c>
+      <c r="E89">
+        <v>0.08887027564172528</v>
+      </c>
+      <c r="F89">
+        <v>-0.007977115247895366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1244022979487295</v>
+        <v>0.1511806418690266</v>
       </c>
       <c r="C90">
-        <v>-0.009673942750034201</v>
+        <v>-0.03360102107074173</v>
       </c>
       <c r="D90">
-        <v>-0.2635570270036931</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2705247881817319</v>
+      </c>
+      <c r="E90">
+        <v>0.1126360373507186</v>
+      </c>
+      <c r="F90">
+        <v>-0.00675172263664171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1128434444594002</v>
+        <v>0.1208988365732646</v>
       </c>
       <c r="C91">
-        <v>-0.008223451607058658</v>
+        <v>-0.01956437114312896</v>
       </c>
       <c r="D91">
-        <v>-0.01580608199642326</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01487920694915909</v>
+      </c>
+      <c r="E91">
+        <v>-0.05528825044919793</v>
+      </c>
+      <c r="F91">
+        <v>-0.001167877353189077</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1448163478265536</v>
+        <v>0.1484560606890925</v>
       </c>
       <c r="C92">
-        <v>0.00389201934081148</v>
+        <v>-0.02451603945371312</v>
       </c>
       <c r="D92">
-        <v>-0.2971166205658116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2915808561773366</v>
+      </c>
+      <c r="E92">
+        <v>0.1010520519881381</v>
+      </c>
+      <c r="F92">
+        <v>-0.01254262675055706</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1273089724109934</v>
+        <v>0.152105326851626</v>
       </c>
       <c r="C93">
-        <v>-0.005098395329137343</v>
+        <v>-0.02886542552167496</v>
       </c>
       <c r="D93">
-        <v>-0.2597172354877765</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2672791692718332</v>
+      </c>
+      <c r="E93">
+        <v>0.07868675613452331</v>
+      </c>
+      <c r="F93">
+        <v>0.003671251135574478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1334127757952971</v>
+        <v>0.1281535407744167</v>
       </c>
       <c r="C94">
-        <v>-0.01392498480681205</v>
+        <v>-0.02431216383023236</v>
       </c>
       <c r="D94">
-        <v>0.03883404449890259</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04195127512762672</v>
+      </c>
+      <c r="E94">
+        <v>-0.05712519533971674</v>
+      </c>
+      <c r="F94">
+        <v>0.03602392466618494</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1198782337914134</v>
+        <v>0.1266830330841222</v>
       </c>
       <c r="C95">
-        <v>-0.002134000108204798</v>
+        <v>-0.002957372832222476</v>
       </c>
       <c r="D95">
-        <v>0.06668857023014936</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09484906183400379</v>
+      </c>
+      <c r="E95">
+        <v>-0.04907823075444284</v>
+      </c>
+      <c r="F95">
+        <v>-0.004639056725280069</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.02695260916656258</v>
+        <v>0.1076911789406448</v>
       </c>
       <c r="C96">
-        <v>0.993957151457232</v>
+        <v>0.9872796416489908</v>
       </c>
       <c r="D96">
-        <v>-0.007328996849841356</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05100673015184257</v>
+      </c>
+      <c r="E96">
+        <v>-0.05342171133374669</v>
+      </c>
+      <c r="F96">
+        <v>0.04250799747244666</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1966073431667271</v>
+        <v>0.192459049637302</v>
       </c>
       <c r="C97">
-        <v>0.02421089176779313</v>
+        <v>0.00705576482050657</v>
       </c>
       <c r="D97">
-        <v>-0.05119093345276505</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01812506655362445</v>
+      </c>
+      <c r="E97">
+        <v>-0.02176642836828081</v>
+      </c>
+      <c r="F97">
+        <v>-0.09592148555643594</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2091582423822303</v>
+        <v>0.2064009653090872</v>
       </c>
       <c r="C98">
-        <v>0.009144731201039603</v>
+        <v>-0.007098080014189155</v>
       </c>
       <c r="D98">
-        <v>-0.01281502186640841</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01297066025993539</v>
+      </c>
+      <c r="E98">
+        <v>0.07816000471875575</v>
+      </c>
+      <c r="F98">
+        <v>-0.09466322243742986</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05450474259495552</v>
+        <v>0.05430621446623364</v>
       </c>
       <c r="C99">
-        <v>0.006881558345126422</v>
+        <v>0.004735472825434102</v>
       </c>
       <c r="D99">
-        <v>0.02331030584486248</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04034272263466112</v>
+      </c>
+      <c r="E99">
+        <v>-0.02255438190037382</v>
+      </c>
+      <c r="F99">
+        <v>0.002334253786615867</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1469292847168871</v>
+        <v>0.1269177442918954</v>
       </c>
       <c r="C100">
-        <v>0.04614813578356964</v>
+        <v>0.05387698306330969</v>
       </c>
       <c r="D100">
-        <v>0.4873775506240442</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3456830796217191</v>
+      </c>
+      <c r="E100">
+        <v>0.886945490203634</v>
+      </c>
+      <c r="F100">
+        <v>-0.1548247811631647</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02548684801705151</v>
+        <v>0.02837055088694001</v>
       </c>
       <c r="C101">
-        <v>-0.008162290893683753</v>
+        <v>-0.008660579004512529</v>
       </c>
       <c r="D101">
-        <v>0.01783035833981813</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03046816414946119</v>
+      </c>
+      <c r="E101">
+        <v>-0.01308955158058571</v>
+      </c>
+      <c r="F101">
+        <v>-0.01453792039652855</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
